--- a/analisis/casos_de_usos/CUS-005 consultar cliente.xlsx
+++ b/analisis/casos_de_usos/CUS-005 consultar cliente.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ratos\casos_de_uso\appp\analisis\casos_de_usos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C9127-EACD-485C-A081-C4331CBFCA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10741BE9-8D0A-4B4D-9698-C5C9BB6B3BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2775" windowWidth="16800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASO DE USO" sheetId="1" r:id="rId1"/>
@@ -625,6 +625,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -639,17 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,8 +872,8 @@
   <dimension ref="A1:V983"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -994,10 +994,10 @@
     <row r="5" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5"/>
@@ -1148,10 +1148,10 @@
     <row r="11" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1486,11 +1486,11 @@
       <c r="B24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1540,11 +1540,11 @@
       <c r="B26" s="20">
         <v>1</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1568,11 +1568,11 @@
       <c r="B27" s="27">
         <v>2</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1596,11 +1596,11 @@
       <c r="B28" s="27">
         <v>3</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1650,11 +1650,11 @@
       <c r="B30" s="22">
         <v>4</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1678,11 +1678,11 @@
       <c r="B31" s="29">
         <v>5</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
